--- a/Particpants_Input/Main/main.xlsx
+++ b/Particpants_Input/Main/main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danig\Documents\GitHub\Research\DataTables\tests\Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danig\Documents\GitHub\Research\DataTables\Particpants_Input\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C48AD5E-08D4-4C8E-BD0E-6470730E0EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A694F5-E4DE-4AC2-9777-E20A9BE36E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97AEF8AB-3370-4E96-99F6-BEF1B362D9BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{97AEF8AB-3370-4E96-99F6-BEF1B362D9BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>G</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Members' column, find the  with a value equal to '15' </t>
-  </si>
-  <si>
     <t>Metal Panic</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>H</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Ranked' column, find the  with a value equal to '26' </t>
-  </si>
-  <si>
     <t>Monster Hunter</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>In the 'Members' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Dropped' column, find the  with a value equal to '17' </t>
-  </si>
-  <si>
     <t>Magical Warfare</t>
   </si>
   <si>
@@ -244,9 +235,6 @@
     <t>In the 'Favorites' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Dropped' column, find the  with a value equal to '12' </t>
-  </si>
-  <si>
     <t>DS5_cereal_color1.png</t>
   </si>
   <si>
@@ -292,9 +280,6 @@
     <t>Iron</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Iron' column, find the  with a value equal to '51' </t>
-  </si>
-  <si>
     <t>Corn Favorite</t>
   </si>
   <si>
@@ -331,9 +316,6 @@
     <t>22 3 7</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Carbo' column, find the  with a value equal to '32' </t>
-  </si>
-  <si>
     <t>DS7_cereal_color3.png</t>
   </si>
   <si>
@@ -361,9 +343,6 @@
     <t>In the 'Fat' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Potassium' column, find the  with a value equal to '83' </t>
-  </si>
-  <si>
     <t>DS8_cereal_color4.png</t>
   </si>
   <si>
@@ -385,9 +364,6 @@
     <t>In the 'Calories' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Fat' column, find the  with a value equal to '26' </t>
-  </si>
-  <si>
     <t>DS9_candy_color1.png</t>
   </si>
   <si>
@@ -434,9 +410,6 @@
   </si>
   <si>
     <t>Bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the 'Bar' column, find the  with a value equal to '32' </t>
   </si>
   <si>
     <t>Jaw Busters</t>
@@ -478,9 +451,6 @@
     <t>In the 'Pluribus' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Bar' column, find the  with a value equal to '68' </t>
-  </si>
-  <si>
     <t>Haribo Cola</t>
   </si>
   <si>
@@ -509,10 +479,6 @@
   </si>
   <si>
     <t>In the 'Nougat' column, calculate a rough estimate of the average value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the 'Sugar
-Percent' column, find the  with a value equal to '26' </t>
   </si>
   <si>
     <t>DS12_candy_color4.png</t>
@@ -537,9 +503,6 @@
     <t>9 28 12</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Pluribus' column, find the  with a value equal to '15' </t>
-  </si>
-  <si>
     <t>DS13_movie_color1.png</t>
   </si>
   <si>
@@ -583,9 +546,6 @@
   </si>
   <si>
     <t>PluggedIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the 'PluggedIn' column, find the  with a value equal to '67' </t>
   </si>
   <si>
     <t>Running Night</t>
@@ -626,9 +586,6 @@
     <t>In the 'MrQE' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Netflix' column, find the  with a value equal to '79' </t>
-  </si>
-  <si>
     <t>End Tour</t>
   </si>
   <si>
@@ -671,9 +628,6 @@
 Tomatoes' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Naver' column, find the  with a value equal to '73' </t>
-  </si>
-  <si>
     <t>DS16_movie_color4.png</t>
   </si>
   <si>
@@ -698,9 +652,6 @@
     <t>Hulu</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Hulu' column, find the  with a value equal to '31' </t>
-  </si>
-  <si>
     <t>Ricki Flash</t>
   </si>
   <si>
@@ -719,9 +670,6 @@
     <t>Hungry Heart-Fighting Animal-Trinity Blood</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Popularity' column, find the  with a value equal to '15' </t>
-  </si>
-  <si>
     <t>Attacking Titan</t>
   </si>
   <si>
@@ -737,9 +685,6 @@
     <t>Cursing Notebook-Fourth Stage-Hungry Heart</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'On-Hold' column, find the  with a value equal to '26' </t>
-  </si>
-  <si>
     <t>Helping Alice</t>
   </si>
   <si>
@@ -758,9 +703,6 @@
     <t>In the 'Completed' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Watching' column, find the  with a value equal to '17' </t>
-  </si>
-  <si>
     <t>Beating Music</t>
   </si>
   <si>
@@ -779,9 +721,6 @@
     <t>Helping Alice-Neon Genesis-Queen Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'On-Hold' column, find the  with a value equal to '12' </t>
-  </si>
-  <si>
     <t>DS5_cereal_zebra1.png</t>
   </si>
   <si>
@@ -797,9 +736,6 @@
     <t>In the 'Fiber' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Sugars' column, find the  with a value equal to '51' </t>
-  </si>
-  <si>
     <t>DS6_cereal_zebra2.png</t>
   </si>
   <si>
@@ -812,9 +748,6 @@
     <t>Smile Maker-Natural Bran-Fruity Pebbles</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Score' column, find the  with a value equal to '32' </t>
-  </si>
-  <si>
     <t>DS7_cereal_zebra3.png</t>
   </si>
   <si>
@@ -833,9 +766,6 @@
     <t>In the 'Sugars' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Protein' column, find the  with a value equal to '83' </t>
-  </si>
-  <si>
     <t>Lucky Charms</t>
   </si>
   <si>
@@ -852,9 +782,6 @@
   </si>
   <si>
     <t>Wonderful Chex-Bran Chex-Raisin Bran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the 'Sodium' column, find the  with a value equal to '26' </t>
   </si>
   <si>
     <t>DS9_candy_zebra1.png</t>
@@ -876,9 +803,6 @@
     <t>30 9 11</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Pluribus' column, find the  with a value equal to '32' </t>
-  </si>
-  <si>
     <t>Root Barrels</t>
   </si>
   <si>
@@ -895,9 +819,6 @@
   </si>
   <si>
     <t>Fun Dips-Laffy Taffy-Gold Bears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the 'Almond' column, find the  with a value equal to '52' </t>
   </si>
   <si>
     <t>Cheese Bears</t>
@@ -919,9 +840,6 @@
     <t>27 12 28</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Nougat' column, find the  with a value equal to '52' </t>
-  </si>
-  <si>
     <t>DS12_candy_zebra4.png</t>
   </si>
   <si>
@@ -937,9 +855,6 @@
     <t>In the 'Almond' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Nougat' column, find the  with a value equal to '59' </t>
-  </si>
-  <si>
     <t>DS13_movie_zebra1.png</t>
   </si>
   <si>
@@ -952,10 +867,6 @@
     <t>End Tour-Black White-My Dreams</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Film
- Comment' column, find the  with a value equal to '67' </t>
-  </si>
-  <si>
     <t>DS14_movie_zebra2.png</t>
   </si>
   <si>
@@ -966,9 +877,6 @@
   </si>
   <si>
     <t>Black Sea-Water Diviner-Hunting Ground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the 'PluggedIn' column, find the  with a value equal to '79' </t>
   </si>
   <si>
     <t>Hot Pursuit</t>
@@ -1005,10 +913,6 @@
     <t>In the 'Roger Ebert' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Film
- Comment' column, find the  with a value equal to '31' </t>
-  </si>
-  <si>
     <t>DS1_anime_plain1.png</t>
   </si>
   <si>
@@ -1028,9 +932,6 @@
     <t>Different Life-Mobile Phone-Great Teacher</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Watching' column, find the  with a value equal to '15' </t>
-  </si>
-  <si>
     <t>DS2_anime_plain2.png</t>
   </si>
   <si>
@@ -1059,9 +960,6 @@
     <t>Ultra Generation-Connect Angel-Magical Warfare</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'On-Hold' column, find the  with a value equal to '17' </t>
-  </si>
-  <si>
     <t>Ultimate horror</t>
   </si>
   <si>
@@ -1071,9 +969,6 @@
     <t>Ultra Generation-Mobile Phone-Ultimate horror</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Popularity' column, find the  with a value equal to '12' </t>
-  </si>
-  <si>
     <t>DS5_cereal_plain1.png</t>
   </si>
   <si>
@@ -1083,9 +978,6 @@
     <t>Oatmeal Crisp-Wheat Cream-Grape Flakes</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Sodium' column, find the  with a value equal to '51' </t>
-  </si>
-  <si>
     <t>DS6_cereal_plain2.png</t>
   </si>
   <si>
@@ -1120,9 +1012,6 @@
   </si>
   <si>
     <t>In the 'Potassium' column, calculate a rough estimate of the average value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the 'Vitamins' column, find the  with a value equal to '26' </t>
   </si>
   <si>
     <t>DS9_candy_plain1.png</t>
@@ -1156,9 +1045,6 @@
     <t>Milk Duds-Fruit Chews-Now Later</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Chocolate' column, find the  with a value equal to '68' </t>
-  </si>
-  <si>
     <t>DS11_candy_plain3.png</t>
   </si>
   <si>
@@ -1168,9 +1054,6 @@
     <t>Pop Rocks-Pixie Sticks-Junior Mints</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Almond' column, find the  with a value equal to '26' </t>
-  </si>
-  <si>
     <t>Reese Pieces</t>
   </si>
   <si>
@@ -1189,9 +1072,6 @@
     <t>In the 'Fruity' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Caramel' column, find the  with a value equal to '15' </t>
-  </si>
-  <si>
     <t>DS13_movie_plain1.png</t>
   </si>
   <si>
@@ -1201,10 +1081,6 @@
     <t>About Elly-Black White-Divergent Series</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Rotten
-Tomatoes' column, find the  with a value equal to '67' </t>
-  </si>
-  <si>
     <t>DS14_movie_plain2.png</t>
   </si>
   <si>
@@ -1217,9 +1093,6 @@
     <t>Irrational Man -Teenage Girl -Mapping Stars</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'MrQE' column, find the  with a value equal to '79' </t>
-  </si>
-  <si>
     <t>DS15_movie_plain3.png</t>
   </si>
   <si>
@@ -1232,10 +1105,6 @@
     <t>Teenage Girl -Irrational Man -Next Door</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Film
- Comment' column, find the  with a value equal to '73' </t>
-  </si>
-  <si>
     <t>Adaline Age</t>
   </si>
   <si>
@@ -1246,9 +1115,6 @@
   </si>
   <si>
     <t xml:space="preserve">Welcome Home-About Elly-Irrational Man </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the 'PluggedIn' column, find the  with a value equal to '31' </t>
   </si>
   <si>
     <t>Still Alice</t>
@@ -1270,9 +1136,6 @@
  to Watch' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Ranked' column, find the  with a value equal to '15' </t>
-  </si>
-  <si>
     <t>DS2_anime_bar2.png</t>
   </si>
   <si>
@@ -1285,9 +1148,6 @@
     <t>In the 'Popularity' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Watching' column, find the  with a value equal to '26' </t>
-  </si>
-  <si>
     <t>DS3_anime_bar3.png</t>
   </si>
   <si>
@@ -1300,10 +1160,6 @@
     <t>In the 'Watching' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Plan
- to Watch' column, find the  with a value equal to '17' </t>
-  </si>
-  <si>
     <t>DS4_anime_bar4.png</t>
   </si>
   <si>
@@ -1316,9 +1172,6 @@
     <t>Lucky Charms-Smile Maker-Wonderful Chex</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Protein' column, find the  with a value equal to '51' </t>
-  </si>
-  <si>
     <t>DS6_cereal_bar2.png</t>
   </si>
   <si>
@@ -1328,18 +1181,12 @@
     <t>Froot Loops-Almond Delight-Post Nat</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Sodium' column, find the  with a value equal to '32' </t>
-  </si>
-  <si>
     <t>DS7_cereal_bar3.png</t>
   </si>
   <si>
     <t>Fruity Pebbles-Colorful Bran-Cap Crunch</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Calories' column, find the  with a value equal to '83' </t>
-  </si>
-  <si>
     <t>DS8_cereal_bar4.png</t>
   </si>
   <si>
@@ -1352,9 +1199,6 @@
     <t>Cap Crunch-Fruit Fibre-Colorful Bran</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Sugars' column, find the  with a value equal to '26' </t>
-  </si>
-  <si>
     <t>DS9_candy_bar1.png</t>
   </si>
   <si>
@@ -1376,9 +1220,6 @@
     <t>Now Later-Milk Duds-Crunch Time</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Price' column, find the  with a value equal to '68' </t>
-  </si>
-  <si>
     <t>DS11_candy_bar3.png</t>
   </si>
   <si>
@@ -1386,9 +1227,6 @@
   </si>
   <si>
     <t>Milk Duds-Air Heads-Caramel Apple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the 'Rating' column, find the  with a value equal to '26' </t>
   </si>
   <si>
     <t>DS12_candy_bar4.png</t>
@@ -1404,9 +1242,6 @@
 Percent' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Rating' column, find the  with a value equal to '15' </t>
-  </si>
-  <si>
     <t>DS13_movie_bar1.png</t>
   </si>
   <si>
@@ -1416,9 +1251,6 @@
     <t>In the 'Metacritic' column, calculate a rough estimate of the average value</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'IMDB' column, find the  with a value equal to '67' </t>
-  </si>
-  <si>
     <t>DS14_movie_bar2.png</t>
   </si>
   <si>
@@ -1428,9 +1260,6 @@
     <t>Fantastic Four-Flights Up-Hunting Ground</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Hulu' column, find the  with a value equal to '79' </t>
-  </si>
-  <si>
     <t>DS15_movie_bar3.png</t>
   </si>
   <si>
@@ -1539,13 +1368,184 @@
     <t>5Par1</t>
   </si>
   <si>
-    <t>5Prompt</t>
-  </si>
-  <si>
     <t>5Answer</t>
   </si>
   <si>
     <t>5Answer Column / Row</t>
+  </si>
+  <si>
+    <t>T5 Prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Members' column, find the anime with a value equal to '15' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Ranked' column, find the anime with a value equal to '26' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Dropped' column, find the anime with a value equal to '17' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Dropped' column, find the anime with a value equal to '12' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Iron' column, find the cereal with a value equal to '51' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Carbo' column, find the cereal with a value equal to '32' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Potassium' column, find the cereal with a value equal to '83' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Fat' column, find the cereal with a value equal to '26' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Bar' column, find the candy with a value equal to '32' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Bar' column, find the candy with a value equal to '68' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Sugar
+Percent' column, find the candy with a value equal to '26' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Pluribus' column, find the candy with a value equal to '15' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'PluggedIn' column, find the movie with a value equal to '67' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Netflix' column, find the movie with a value equal to '79' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Naver' column, find the movie with a value equal to '73' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Hulu' column, find the movie with a value equal to '31' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Popularity' column, find the anime with a value equal to '15' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'On-Hold' column, find the anime with a value equal to '26' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Watching' column, find the anime with a value equal to '17' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'On-Hold' column, find the anime with a value equal to '12' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Sugars' column, find the cereal with a value equal to '51' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Score' column, find the cereal with a value equal to '32' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Protein' column, find the cereal with a value equal to '83' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Sodium' column, find the cereal with a value equal to '26' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Pluribus' column, find the candy with a value equal to '32' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Almond' column, find the candy with a value equal to '52' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Nougat' column, find the candy with a value equal to '52' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Nougat' column, find the candy with a value equal to '59' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Film
+ Comment' column, find the movie with a value equal to '67' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'PluggedIn' column, find the movie with a value equal to '79' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Film
+ Comment' column, find the movie with a value equal to '31' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Watching' column, find the anime with a value equal to '15' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'On-Hold' column, find the anime with a value equal to '17' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Popularity' column, find the anime with a value equal to '12' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Sodium' column, find the cereal with a value equal to '51' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Vitamins' column, find the cereal with a value equal to '26' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Chocolate' column, find the candy with a value equal to '68' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Almond' column, find the candy with a value equal to '26' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Caramel' column, find the candy with a value equal to '15' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Rotten
+Tomatoes' column, find the movie with a value equal to '67' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'MrQE' column, find the movie with a value equal to '79' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Film
+ Comment' column, find the movie with a value equal to '73' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'PluggedIn' column, find the movie with a value equal to '31' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Ranked' column, find the anime with a value equal to '15' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Watching' column, find the anime with a value equal to '26' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Plan
+ to Watch' column, find the anime with a value equal to '17' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Protein' column, find the cereal with a value equal to '51' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Sodium' column, find the cereal with a value equal to '32' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Calories' column, find the cereal with a value equal to '83' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Sugars' column, find the cereal with a value equal to '26' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Price' column, find the candy with a value equal to '68' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Rating' column, find the candy with a value equal to '26' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Rating' column, find the candy with a value equal to '15' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'IMDB' column, find the movie with a value equal to '67' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Hulu' column, find the movie with a value equal to '79' </t>
   </si>
 </sst>
 </file>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181E0580-1E28-406C-872B-C329A0E70E09}">
   <dimension ref="A1:AL65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,7 +1946,7 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>463</v>
+        <v>408</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1967,97 +1967,97 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>464</v>
+        <v>409</v>
       </c>
       <c r="I1" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="J1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="K1" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="L1" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="M1" t="s">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="N1" t="s">
-        <v>470</v>
+        <v>415</v>
       </c>
       <c r="O1" t="s">
-        <v>471</v>
+        <v>416</v>
       </c>
       <c r="P1" t="s">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="Q1" t="s">
-        <v>473</v>
+        <v>418</v>
       </c>
       <c r="R1" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
       <c r="S1" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="T1" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="U1" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="V1" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="W1" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="X1" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="Y1" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="Z1" t="s">
-        <v>482</v>
+        <v>427</v>
       </c>
       <c r="AA1" t="s">
-        <v>483</v>
+        <v>428</v>
       </c>
       <c r="AB1" t="s">
-        <v>484</v>
+        <v>429</v>
       </c>
       <c r="AC1" t="s">
-        <v>485</v>
+        <v>430</v>
       </c>
       <c r="AD1" t="s">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="AE1" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="AF1" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="AG1" t="s">
-        <v>489</v>
+        <v>434</v>
       </c>
       <c r="AH1" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="AI1" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="AJ1" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="AK1" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="AL1" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
@@ -2158,10 +2158,10 @@
         <v>15</v>
       </c>
       <c r="AJ2" t="s">
+        <v>440</v>
+      </c>
+      <c r="AK2" t="s">
         <v>29</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>30</v>
       </c>
       <c r="AL2">
         <v>16</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2187,7 +2187,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -2196,7 +2196,7 @@
         <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3">
         <v>6</v>
@@ -2205,7 +2205,7 @@
         <v>16</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s">
         <v>13</v>
@@ -2214,61 +2214,61 @@
         <v>0.97907681254828294</v>
       </c>
       <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
         <v>35</v>
-      </c>
-      <c r="S3" t="s">
-        <v>36</v>
       </c>
       <c r="T3" t="s">
         <v>18</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V3" t="s">
         <v>16</v>
       </c>
       <c r="W3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" t="s">
         <v>37</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>39</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>40</v>
       </c>
       <c r="AA3" t="s">
         <v>12</v>
       </c>
       <c r="AB3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" t="s">
         <v>41</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>42</v>
       </c>
       <c r="AE3">
         <v>62.379310344827587</v>
       </c>
       <c r="AF3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH3" t="s">
         <v>43</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>44</v>
       </c>
       <c r="AI3">
         <v>26</v>
       </c>
       <c r="AJ3" t="s">
-        <v>45</v>
+        <v>441</v>
       </c>
       <c r="AK3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL3">
         <v>20</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2303,7 +2303,7 @@
         <v>88</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -2321,46 +2321,46 @@
         <v>0.99227475769340667</v>
       </c>
       <c r="R4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S4" t="s">
         <v>12</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V4" t="s">
         <v>10</v>
       </c>
       <c r="W4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" t="s">
         <v>52</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>53</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>55</v>
       </c>
       <c r="AA4" t="s">
         <v>27</v>
       </c>
       <c r="AB4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE4">
         <v>37.862068965517238</v>
       </c>
       <c r="AF4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG4" t="s">
         <v>17</v>
@@ -2372,10 +2372,10 @@
         <v>17</v>
       </c>
       <c r="AJ4" t="s">
-        <v>58</v>
+        <v>442</v>
       </c>
       <c r="AK4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AL4">
         <v>16</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2404,19 +2404,19 @@
         <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M5">
         <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
         <v>24</v>
@@ -2428,7 +2428,7 @@
         <v>0.99941483276183429</v>
       </c>
       <c r="R5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S5" t="s">
         <v>17</v>
@@ -2440,28 +2440,28 @@
         <v>27</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z5" t="s">
         <v>63</v>
       </c>
-      <c r="X5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>66</v>
-      </c>
       <c r="AA5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB5" t="s">
         <v>28</v>
       </c>
       <c r="AD5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AE5">
         <v>47.655172413793103</v>
@@ -2479,10 +2479,10 @@
         <v>12</v>
       </c>
       <c r="AJ5" t="s">
-        <v>68</v>
+        <v>443</v>
       </c>
       <c r="AK5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL5">
         <v>18</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2499,7 +2499,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -2517,7 +2517,7 @@
         <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M6">
         <v>8</v>
@@ -2526,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s">
         <v>13</v>
@@ -2535,61 +2535,61 @@
         <v>0.99941483276183463</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" t="s">
+        <v>72</v>
+      </c>
+      <c r="V6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
         <v>75</v>
       </c>
-      <c r="T6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="Z6" t="s">
         <v>76</v>
       </c>
-      <c r="V6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W6" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>77</v>
       </c>
-      <c r="Y6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>81</v>
-      </c>
       <c r="AB6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AE6">
         <v>56.931034482758619</v>
       </c>
       <c r="AF6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI6">
         <v>51</v>
       </c>
       <c r="AJ6" t="s">
-        <v>84</v>
+        <v>444</v>
       </c>
       <c r="AK6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL6">
         <v>17</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2606,7 +2606,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -2615,25 +2615,25 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M7">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s">
         <v>13</v>
@@ -2642,37 +2642,37 @@
         <v>0.99227475769340689</v>
       </c>
       <c r="R7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="S7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="T7" t="s">
         <v>16</v>
       </c>
       <c r="U7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V7" t="s">
         <v>16</v>
       </c>
       <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z7" t="s">
         <v>91</v>
-      </c>
-      <c r="X7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>96</v>
       </c>
       <c r="AA7" t="s">
         <v>24</v>
       </c>
       <c r="AB7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD7" t="s">
         <v>26</v>
@@ -2681,22 +2681,22 @@
         <v>42.103448275862071</v>
       </c>
       <c r="AF7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI7">
         <v>32</v>
       </c>
       <c r="AJ7" t="s">
-        <v>97</v>
+        <v>445</v>
       </c>
       <c r="AK7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AL7">
         <v>19</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -2713,7 +2713,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2722,7 +2722,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
@@ -2731,7 +2731,7 @@
         <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -2740,7 +2740,7 @@
         <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s">
         <v>13</v>
@@ -2749,16 +2749,16 @@
         <v>0.99941483276183429</v>
       </c>
       <c r="R8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s">
         <v>10</v>
       </c>
       <c r="U8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="V8" t="s">
         <v>10</v>
@@ -2767,22 +2767,22 @@
         <v>19</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Z8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AB8" t="s">
         <v>25</v>
       </c>
       <c r="AD8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AE8">
         <v>35.620689655172413</v>
@@ -2791,7 +2791,7 @@
         <v>25</v>
       </c>
       <c r="AG8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AH8" t="s">
         <v>16</v>
@@ -2800,10 +2800,10 @@
         <v>83</v>
       </c>
       <c r="AJ8" t="s">
-        <v>107</v>
+        <v>446</v>
       </c>
       <c r="AK8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL8">
         <v>17</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -2820,7 +2820,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -2829,25 +2829,25 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M9">
         <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P9" t="s">
         <v>13</v>
@@ -2856,61 +2856,61 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="T9" t="s">
         <v>18</v>
       </c>
       <c r="U9" t="s">
+        <v>99</v>
+      </c>
+      <c r="V9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
         <v>105</v>
       </c>
-      <c r="V9" t="s">
-        <v>50</v>
-      </c>
-      <c r="W9" t="s">
-        <v>52</v>
-      </c>
-      <c r="X9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>112</v>
-      </c>
       <c r="Z9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AA9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AE9">
         <v>52.310344827586206</v>
       </c>
       <c r="AF9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AH9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI9">
         <v>26</v>
       </c>
       <c r="AJ9" t="s">
-        <v>115</v>
+        <v>447</v>
       </c>
       <c r="AK9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL9">
         <v>20</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2927,7 +2927,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -2936,25 +2936,25 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M10">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s">
         <v>13</v>
@@ -2963,40 +2963,40 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="S10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="T10" t="s">
         <v>18</v>
       </c>
       <c r="U10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="V10" t="s">
         <v>16</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Z10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AB10" t="s">
         <v>28</v>
       </c>
       <c r="AD10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AE10">
         <v>37.862068965517238</v>
@@ -3005,7 +3005,7 @@
         <v>28</v>
       </c>
       <c r="AG10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AH10" t="s">
         <v>10</v>
@@ -3014,10 +3014,10 @@
         <v>32</v>
       </c>
       <c r="AJ10" t="s">
-        <v>132</v>
+        <v>448</v>
       </c>
       <c r="AK10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="AL10">
         <v>19</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3034,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -3043,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
         <v>10</v>
@@ -3052,7 +3052,7 @@
         <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M11">
         <v>8</v>
@@ -3061,7 +3061,7 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="P11" t="s">
         <v>13</v>
@@ -3070,40 +3070,40 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R11" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="S11" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="T11" t="s">
         <v>10</v>
       </c>
       <c r="U11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="V11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" t="s">
         <v>50</v>
       </c>
-      <c r="W11" t="s">
-        <v>52</v>
-      </c>
       <c r="X11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Y11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Z11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AA11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AB11" t="s">
         <v>25</v>
       </c>
       <c r="AD11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AE11">
         <v>35.620689655172413</v>
@@ -3112,19 +3112,19 @@
         <v>25</v>
       </c>
       <c r="AG11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AH11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI11">
         <v>68</v>
       </c>
       <c r="AJ11" t="s">
-        <v>145</v>
+        <v>449</v>
       </c>
       <c r="AK11" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL11">
         <v>17</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3141,7 +3141,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -3150,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
@@ -3159,7 +3159,7 @@
         <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="M12">
         <v>7</v>
@@ -3168,7 +3168,7 @@
         <v>28</v>
       </c>
       <c r="O12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="P12" t="s">
         <v>13</v>
@@ -3177,49 +3177,49 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="S12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="Z12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AA12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AB12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AE12">
         <v>50.241379310344826</v>
       </c>
       <c r="AF12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AH12" t="s">
         <v>18</v>
@@ -3228,10 +3228,10 @@
         <v>26</v>
       </c>
       <c r="AJ12" t="s">
-        <v>156</v>
+        <v>450</v>
       </c>
       <c r="AK12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AL12">
         <v>11</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3248,7 +3248,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -3257,7 +3257,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -3266,7 +3266,7 @@
         <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M13">
         <v>6</v>
@@ -3275,7 +3275,7 @@
         <v>16</v>
       </c>
       <c r="O13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P13" t="s">
         <v>13</v>
@@ -3284,16 +3284,16 @@
         <v>0.99227475769340701</v>
       </c>
       <c r="R13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="S13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="T13" t="s">
         <v>16</v>
       </c>
       <c r="U13" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="V13" t="s">
         <v>18</v>
@@ -3302,22 +3302,22 @@
         <v>19</v>
       </c>
       <c r="X13" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="Z13" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="AA13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AB13" t="s">
         <v>28</v>
       </c>
       <c r="AD13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AE13">
         <v>37.862068965517238</v>
@@ -3326,19 +3326,19 @@
         <v>28</v>
       </c>
       <c r="AG13" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI13">
         <v>15</v>
       </c>
       <c r="AJ13" t="s">
-        <v>164</v>
+        <v>451</v>
       </c>
       <c r="AK13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AL13">
         <v>15</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3355,7 +3355,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -3364,25 +3364,25 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="M14">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="P14" t="s">
         <v>13</v>
@@ -3391,49 +3391,49 @@
         <v>0.99227475769340712</v>
       </c>
       <c r="R14" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="S14" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="T14" t="s">
         <v>16</v>
       </c>
       <c r="U14" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="V14" t="s">
         <v>16</v>
       </c>
       <c r="W14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X14" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="Z14" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AA14" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="AB14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD14" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="AE14">
         <v>52.310344827586206</v>
       </c>
       <c r="AF14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG14" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AH14" t="s">
         <v>10</v>
@@ -3442,10 +3442,10 @@
         <v>67</v>
       </c>
       <c r="AJ14" t="s">
-        <v>180</v>
+        <v>452</v>
       </c>
       <c r="AK14" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="AL14">
         <v>20</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3462,7 +3462,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -3471,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
@@ -3480,7 +3480,7 @@
         <v>76</v>
       </c>
       <c r="L15" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="M15">
         <v>8</v>
@@ -3489,7 +3489,7 @@
         <v>16</v>
       </c>
       <c r="O15" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s">
         <v>13</v>
@@ -3498,40 +3498,40 @@
         <v>0.99941483276183463</v>
       </c>
       <c r="R15" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="S15" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="T15" t="s">
         <v>18</v>
       </c>
       <c r="U15" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="V15" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" t="s">
         <v>50</v>
       </c>
-      <c r="W15" t="s">
-        <v>52</v>
-      </c>
       <c r="X15" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AB15" t="s">
         <v>28</v>
       </c>
       <c r="AD15" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="AE15">
         <v>37.862068965517238</v>
@@ -3540,7 +3540,7 @@
         <v>28</v>
       </c>
       <c r="AG15" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AH15" t="s">
         <v>16</v>
@@ -3549,10 +3549,10 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s">
-        <v>193</v>
+        <v>453</v>
       </c>
       <c r="AK15" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AL15">
         <v>18</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3569,7 +3569,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -3578,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
         <v>10</v>
@@ -3587,7 +3587,7 @@
         <v>54</v>
       </c>
       <c r="L16" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M16">
         <v>7</v>
@@ -3596,7 +3596,7 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s">
         <v>13</v>
@@ -3605,49 +3605,49 @@
         <v>0.99941483276183463</v>
       </c>
       <c r="R16" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="S16" t="s">
+        <v>170</v>
+      </c>
+      <c r="T16" t="s">
+        <v>185</v>
+      </c>
+      <c r="U16" t="s">
+        <v>167</v>
+      </c>
+      <c r="V16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" t="s">
+        <v>140</v>
+      </c>
+      <c r="X16" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA16" t="s">
         <v>183</v>
       </c>
-      <c r="T16" t="s">
-        <v>199</v>
-      </c>
-      <c r="U16" t="s">
-        <v>179</v>
-      </c>
-      <c r="V16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W16" t="s">
-        <v>150</v>
-      </c>
-      <c r="X16" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>197</v>
-      </c>
       <c r="AB16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD16" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="AE16">
         <v>50.241379310344826</v>
       </c>
       <c r="AF16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG16" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="AH16" t="s">
         <v>18</v>
@@ -3656,10 +3656,10 @@
         <v>73</v>
       </c>
       <c r="AJ16" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
       <c r="AK16" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="AL16">
         <v>19</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3676,7 +3676,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -3685,7 +3685,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
         <v>28</v>
@@ -3694,7 +3694,7 @@
         <v>57</v>
       </c>
       <c r="L17" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="M17">
         <v>6</v>
@@ -3703,7 +3703,7 @@
         <v>28</v>
       </c>
       <c r="O17" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P17" t="s">
         <v>13</v>
@@ -3712,61 +3712,61 @@
         <v>0.99227475769340667</v>
       </c>
       <c r="R17" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="S17" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="T17" t="s">
         <v>10</v>
       </c>
       <c r="U17" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="V17" t="s">
         <v>10</v>
       </c>
       <c r="W17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X17" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="Z17" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="AA17" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="AB17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD17" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="AE17">
         <v>52.310344827586206</v>
       </c>
       <c r="AF17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG17" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AH17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI17">
         <v>31</v>
       </c>
       <c r="AJ17" t="s">
-        <v>216</v>
+        <v>455</v>
       </c>
       <c r="AK17" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="AL17">
         <v>17</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3786,13 +3786,13 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J18" t="s">
         <v>10</v>
@@ -3801,7 +3801,7 @@
         <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="M18">
         <v>7</v>
@@ -3837,10 +3837,10 @@
         <v>19</v>
       </c>
       <c r="X18" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="Z18" t="s">
         <v>23</v>
@@ -3852,7 +3852,7 @@
         <v>25</v>
       </c>
       <c r="AD18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE18">
         <v>28.896551724137932</v>
@@ -3861,7 +3861,7 @@
         <v>25</v>
       </c>
       <c r="AG18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AH18" t="s">
         <v>28</v>
@@ -3870,10 +3870,10 @@
         <v>15</v>
       </c>
       <c r="AJ18" t="s">
-        <v>223</v>
+        <v>456</v>
       </c>
       <c r="AK18" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="AL18">
         <v>16</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3893,13 +3893,13 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" t="s">
         <v>16</v>
@@ -3908,7 +3908,7 @@
         <v>70</v>
       </c>
       <c r="L19" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -3917,7 +3917,7 @@
         <v>16</v>
       </c>
       <c r="O19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" t="s">
         <v>13</v>
@@ -3926,61 +3926,61 @@
         <v>0.97907681254828294</v>
       </c>
       <c r="R19" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" t="s">
         <v>35</v>
-      </c>
-      <c r="S19" t="s">
-        <v>36</v>
       </c>
       <c r="T19" t="s">
         <v>18</v>
       </c>
       <c r="U19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V19" t="s">
         <v>16</v>
       </c>
       <c r="W19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X19" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="Y19" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="Z19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA19" t="s">
         <v>27</v>
       </c>
       <c r="AB19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE19">
         <v>62.379310344827587</v>
       </c>
       <c r="AF19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI19">
         <v>26</v>
       </c>
       <c r="AJ19" t="s">
-        <v>229</v>
+        <v>457</v>
       </c>
       <c r="AK19" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="AL19">
         <v>20</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -4000,13 +4000,13 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
@@ -4015,7 +4015,7 @@
         <v>88</v>
       </c>
       <c r="L20" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -4033,13 +4033,13 @@
         <v>0.99227475769340667</v>
       </c>
       <c r="R20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S20" t="s">
         <v>12</v>
       </c>
       <c r="T20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U20" t="s">
         <v>12</v>
@@ -4048,31 +4048,31 @@
         <v>10</v>
       </c>
       <c r="W20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X20" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="Z20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA20" t="s">
         <v>15</v>
       </c>
       <c r="AB20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD20" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="AE20">
         <v>37.862068965517238</v>
       </c>
       <c r="AF20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG20" t="s">
         <v>9</v>
@@ -4084,10 +4084,10 @@
         <v>17</v>
       </c>
       <c r="AJ20" t="s">
-        <v>236</v>
+        <v>458</v>
       </c>
       <c r="AK20" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="AL20">
         <v>16</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -4107,7 +4107,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -4116,19 +4116,19 @@
         <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>43</v>
       </c>
       <c r="L21" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="M21">
         <v>8</v>
       </c>
       <c r="N21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O21" t="s">
         <v>24</v>
@@ -4140,7 +4140,7 @@
         <v>0.99941483276183429</v>
       </c>
       <c r="R21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S21" t="s">
         <v>17</v>
@@ -4152,19 +4152,19 @@
         <v>24</v>
       </c>
       <c r="V21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W21" t="s">
+        <v>60</v>
+      </c>
+      <c r="X21" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z21" t="s">
         <v>63</v>
-      </c>
-      <c r="X21" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>66</v>
       </c>
       <c r="AA21" t="s">
         <v>27</v>
@@ -4173,7 +4173,7 @@
         <v>28</v>
       </c>
       <c r="AD21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE21">
         <v>47.655172413793103</v>
@@ -4182,7 +4182,7 @@
         <v>28</v>
       </c>
       <c r="AG21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s">
         <v>10</v>
@@ -4191,7 +4191,7 @@
         <v>12</v>
       </c>
       <c r="AJ21" t="s">
-        <v>243</v>
+        <v>459</v>
       </c>
       <c r="AK21" t="s">
         <v>21</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -4211,16 +4211,16 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
         <v>16</v>
@@ -4229,7 +4229,7 @@
         <v>57</v>
       </c>
       <c r="L22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M22">
         <v>8</v>
@@ -4238,7 +4238,7 @@
         <v>16</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P22" t="s">
         <v>13</v>
@@ -4247,61 +4247,61 @@
         <v>0.99941483276183463</v>
       </c>
       <c r="R22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X22" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="Z22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="AB22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD22" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="AE22">
         <v>56.931034482758619</v>
       </c>
       <c r="AF22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AH22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI22">
         <v>51</v>
       </c>
       <c r="AJ22" t="s">
-        <v>249</v>
+        <v>460</v>
       </c>
       <c r="AK22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL22">
         <v>17</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -4318,10 +4318,10 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -4330,22 +4330,22 @@
         <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>70</v>
       </c>
       <c r="L23" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="M23">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
         <v>13</v>
@@ -4354,40 +4354,40 @@
         <v>0.99227475769340689</v>
       </c>
       <c r="R23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="S23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="T23" t="s">
         <v>16</v>
       </c>
       <c r="U23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="V23" t="s">
         <v>16</v>
       </c>
       <c r="W23" t="s">
+        <v>86</v>
+      </c>
+      <c r="X23" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z23" t="s">
         <v>91</v>
       </c>
-      <c r="X23" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>96</v>
-      </c>
       <c r="AA23" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="AB23" t="s">
         <v>28</v>
       </c>
       <c r="AD23" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="AE23">
         <v>52.310344827586206</v>
@@ -4399,16 +4399,16 @@
         <v>24</v>
       </c>
       <c r="AH23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI23">
         <v>32</v>
       </c>
       <c r="AJ23" t="s">
-        <v>254</v>
+        <v>461</v>
       </c>
       <c r="AK23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AL23">
         <v>19</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -4425,16 +4425,16 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s">
         <v>10</v>
@@ -4443,7 +4443,7 @@
         <v>45</v>
       </c>
       <c r="L24" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="M24">
         <v>6</v>
@@ -4452,7 +4452,7 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P24" t="s">
         <v>13</v>
@@ -4461,16 +4461,16 @@
         <v>0.99941483276183429</v>
       </c>
       <c r="R24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="T24" t="s">
         <v>10</v>
       </c>
       <c r="U24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="V24" t="s">
         <v>10</v>
@@ -4479,22 +4479,22 @@
         <v>19</v>
       </c>
       <c r="X24" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="Y24" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="Z24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB24" t="s">
         <v>25</v>
       </c>
       <c r="AD24" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="AE24">
         <v>35.620689655172413</v>
@@ -4503,7 +4503,7 @@
         <v>25</v>
       </c>
       <c r="AG24" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s">
         <v>16</v>
@@ -4512,10 +4512,10 @@
         <v>83</v>
       </c>
       <c r="AJ24" t="s">
-        <v>261</v>
+        <v>462</v>
       </c>
       <c r="AK24" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="AL24">
         <v>17</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -4532,34 +4532,34 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G25">
         <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K25">
         <v>60</v>
       </c>
       <c r="L25" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="M25">
         <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P25" t="s">
         <v>13</v>
@@ -4568,37 +4568,37 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="T25" t="s">
         <v>18</v>
       </c>
       <c r="U25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V25" t="s">
+        <v>48</v>
+      </c>
+      <c r="W25" t="s">
         <v>50</v>
       </c>
-      <c r="W25" t="s">
-        <v>52</v>
-      </c>
       <c r="X25" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="Y25" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="Z25" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AA25" t="s">
         <v>24</v>
       </c>
       <c r="AB25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD25" t="s">
         <v>26</v>
@@ -4607,22 +4607,22 @@
         <v>52.310344827586206</v>
       </c>
       <c r="AF25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AH25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI25">
         <v>26</v>
       </c>
       <c r="AJ25" t="s">
-        <v>268</v>
+        <v>463</v>
       </c>
       <c r="AK25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AL25">
         <v>20</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -4639,34 +4639,34 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>66</v>
       </c>
       <c r="L26" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="M26">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O26" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P26" t="s">
         <v>13</v>
@@ -4675,40 +4675,40 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R26" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="S26" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="T26" t="s">
         <v>18</v>
       </c>
       <c r="U26" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="V26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W26" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="X26" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="Y26" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="Z26" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="AA26" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AB26" t="s">
         <v>28</v>
       </c>
       <c r="AD26" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AE26">
         <v>37.862068965517238</v>
@@ -4717,7 +4717,7 @@
         <v>28</v>
       </c>
       <c r="AG26" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH26" t="s">
         <v>10</v>
@@ -4726,10 +4726,10 @@
         <v>32</v>
       </c>
       <c r="AJ26" t="s">
-        <v>275</v>
+        <v>464</v>
       </c>
       <c r="AK26" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="AL26">
         <v>19</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -4746,16 +4746,16 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J27" t="s">
         <v>10</v>
@@ -4764,7 +4764,7 @@
         <v>38</v>
       </c>
       <c r="L27" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="M27">
         <v>8</v>
@@ -4773,7 +4773,7 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="P27" t="s">
         <v>13</v>
@@ -4782,40 +4782,40 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R27" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="S27" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="T27" t="s">
         <v>10</v>
       </c>
       <c r="U27" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="V27" t="s">
+        <v>48</v>
+      </c>
+      <c r="W27" t="s">
         <v>50</v>
       </c>
-      <c r="W27" t="s">
-        <v>52</v>
-      </c>
       <c r="X27" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Y27" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="Z27" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AA27" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AB27" t="s">
         <v>25</v>
       </c>
       <c r="AD27" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AE27">
         <v>35.620689655172413</v>
@@ -4824,19 +4824,19 @@
         <v>25</v>
       </c>
       <c r="AG27" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="AH27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI27">
         <v>52</v>
       </c>
       <c r="AJ27" t="s">
-        <v>282</v>
+        <v>465</v>
       </c>
       <c r="AK27" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="AL27">
         <v>16</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -4853,16 +4853,16 @@
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J28" t="s">
         <v>28</v>
@@ -4871,7 +4871,7 @@
         <v>50</v>
       </c>
       <c r="L28" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="M28">
         <v>7</v>
@@ -4880,7 +4880,7 @@
         <v>28</v>
       </c>
       <c r="O28" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="P28" t="s">
         <v>13</v>
@@ -4889,49 +4889,49 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R28" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="S28" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="T28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U28" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="V28" t="s">
         <v>18</v>
       </c>
       <c r="W28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X28" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="Y28" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="Z28" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="AA28" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AB28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD28" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AE28">
         <v>50.241379310344826</v>
       </c>
       <c r="AF28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG28" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AH28" t="s">
         <v>18</v>
@@ -4940,10 +4940,10 @@
         <v>52</v>
       </c>
       <c r="AJ28" t="s">
-        <v>289</v>
+        <v>466</v>
       </c>
       <c r="AK28" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AL28">
         <v>15</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -4960,16 +4960,16 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G29">
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J29" t="s">
         <v>16</v>
@@ -4978,7 +4978,7 @@
         <v>57</v>
       </c>
       <c r="L29" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="M29">
         <v>6</v>
@@ -4987,7 +4987,7 @@
         <v>16</v>
       </c>
       <c r="O29" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P29" t="s">
         <v>13</v>
@@ -4996,40 +4996,40 @@
         <v>0.99227475769340701</v>
       </c>
       <c r="R29" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="S29" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="T29" t="s">
         <v>16</v>
       </c>
       <c r="U29" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="V29" t="s">
         <v>10</v>
       </c>
       <c r="W29" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="X29" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="Y29" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="Z29" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="AA29" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="AB29" t="s">
         <v>28</v>
       </c>
       <c r="AD29" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="AE29">
         <v>37.862068965517238</v>
@@ -5038,19 +5038,19 @@
         <v>28</v>
       </c>
       <c r="AG29" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AH29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI29">
         <v>59</v>
       </c>
       <c r="AJ29" t="s">
-        <v>295</v>
+        <v>467</v>
       </c>
       <c r="AK29" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AL29">
         <v>16</v>
@@ -5058,7 +5058,7 @@
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -5067,34 +5067,34 @@
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>70</v>
       </c>
       <c r="L30" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="M30">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O30" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="P30" t="s">
         <v>13</v>
@@ -5103,49 +5103,49 @@
         <v>0.99227475769340712</v>
       </c>
       <c r="R30" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="S30" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="T30" t="s">
         <v>16</v>
       </c>
       <c r="U30" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="V30" t="s">
         <v>16</v>
       </c>
       <c r="W30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X30" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="Y30" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="Z30" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AA30" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AB30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD30" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="AE30">
         <v>52.310344827586206</v>
       </c>
       <c r="AF30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG30" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AH30" t="s">
         <v>10</v>
@@ -5154,10 +5154,10 @@
         <v>67</v>
       </c>
       <c r="AJ30" t="s">
-        <v>300</v>
+        <v>468</v>
       </c>
       <c r="AK30" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="AL30">
         <v>20</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -5174,16 +5174,16 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F31" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J31" t="s">
         <v>16</v>
@@ -5192,7 +5192,7 @@
         <v>76</v>
       </c>
       <c r="L31" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="M31">
         <v>8</v>
@@ -5201,7 +5201,7 @@
         <v>16</v>
       </c>
       <c r="O31" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="P31" t="s">
         <v>13</v>
@@ -5210,40 +5210,40 @@
         <v>0.99941483276183463</v>
       </c>
       <c r="R31" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="S31" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="T31" t="s">
         <v>18</v>
       </c>
       <c r="U31" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="V31" t="s">
+        <v>48</v>
+      </c>
+      <c r="W31" t="s">
         <v>50</v>
       </c>
-      <c r="W31" t="s">
-        <v>52</v>
-      </c>
       <c r="X31" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="Y31" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="Z31" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AA31" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="AB31" t="s">
         <v>28</v>
       </c>
       <c r="AD31" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="AE31">
         <v>37.862068965517238</v>
@@ -5252,7 +5252,7 @@
         <v>28</v>
       </c>
       <c r="AG31" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AH31" t="s">
         <v>16</v>
@@ -5261,10 +5261,10 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s">
-        <v>305</v>
+        <v>469</v>
       </c>
       <c r="AK31" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="AL31">
         <v>18</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -5281,16 +5281,16 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="J32" t="s">
         <v>10</v>
@@ -5299,7 +5299,7 @@
         <v>54</v>
       </c>
       <c r="L32" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="M32">
         <v>7</v>
@@ -5308,7 +5308,7 @@
         <v>10</v>
       </c>
       <c r="O32" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="P32" t="s">
         <v>13</v>
@@ -5317,49 +5317,49 @@
         <v>0.99941483276183463</v>
       </c>
       <c r="R32" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="S32" t="s">
+        <v>170</v>
+      </c>
+      <c r="T32" t="s">
+        <v>48</v>
+      </c>
+      <c r="U32" t="s">
         <v>183</v>
       </c>
-      <c r="T32" t="s">
-        <v>50</v>
-      </c>
-      <c r="U32" t="s">
-        <v>197</v>
-      </c>
       <c r="V32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W32" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="X32" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="Y32" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="Z32" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="AA32" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AB32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD32" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="AE32">
         <v>50.241379310344826</v>
       </c>
       <c r="AF32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="AH32" t="s">
         <v>18</v>
@@ -5368,10 +5368,10 @@
         <v>73</v>
       </c>
       <c r="AJ32" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
       <c r="AK32" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AL32">
         <v>19</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -5388,16 +5388,16 @@
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G33">
         <v>4</v>
       </c>
       <c r="I33" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="J33" t="s">
         <v>28</v>
@@ -5406,7 +5406,7 @@
         <v>57</v>
       </c>
       <c r="L33" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="M33">
         <v>6</v>
@@ -5415,7 +5415,7 @@
         <v>28</v>
       </c>
       <c r="O33" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P33" t="s">
         <v>13</v>
@@ -5424,61 +5424,61 @@
         <v>0.99227475769340667</v>
       </c>
       <c r="R33" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="S33" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="T33" t="s">
         <v>10</v>
       </c>
       <c r="U33" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="V33" t="s">
         <v>10</v>
       </c>
       <c r="W33" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X33" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="Y33" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="Z33" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="AA33" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="AB33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD33" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="AE33">
         <v>52.310344827586206</v>
       </c>
       <c r="AF33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG33" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AH33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI33">
         <v>31</v>
       </c>
       <c r="AJ33" t="s">
-        <v>317</v>
+        <v>470</v>
       </c>
       <c r="AK33" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="AL33">
         <v>17</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -5498,7 +5498,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -5513,7 +5513,7 @@
         <v>80</v>
       </c>
       <c r="L34" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="M34">
         <v>7</v>
@@ -5540,7 +5540,7 @@
         <v>16</v>
       </c>
       <c r="U34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V34" t="s">
         <v>18</v>
@@ -5549,10 +5549,10 @@
         <v>19</v>
       </c>
       <c r="X34" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="Y34" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="Z34" t="s">
         <v>23</v>
@@ -5564,7 +5564,7 @@
         <v>25</v>
       </c>
       <c r="AD34" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="AE34">
         <v>28.896551724137932</v>
@@ -5582,10 +5582,10 @@
         <v>15</v>
       </c>
       <c r="AJ34" t="s">
-        <v>324</v>
+        <v>471</v>
       </c>
       <c r="AK34" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="AL34">
         <v>16</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -5605,13 +5605,13 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
@@ -5620,7 +5620,7 @@
         <v>70</v>
       </c>
       <c r="L35" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="M35">
         <v>6</v>
@@ -5629,7 +5629,7 @@
         <v>16</v>
       </c>
       <c r="O35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P35" t="s">
         <v>13</v>
@@ -5638,61 +5638,61 @@
         <v>0.97907681254828294</v>
       </c>
       <c r="R35" t="s">
+        <v>34</v>
+      </c>
+      <c r="S35" t="s">
         <v>35</v>
-      </c>
-      <c r="S35" t="s">
-        <v>36</v>
       </c>
       <c r="T35" t="s">
         <v>18</v>
       </c>
       <c r="U35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V35" t="s">
         <v>16</v>
       </c>
       <c r="W35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X35" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="Y35" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Z35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB35" t="s">
         <v>40</v>
       </c>
-      <c r="AA35" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>41</v>
-      </c>
       <c r="AD35" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AE35">
         <v>62.379310344827587</v>
       </c>
       <c r="AF35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AH35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI35">
         <v>26</v>
       </c>
       <c r="AJ35" t="s">
-        <v>229</v>
+        <v>457</v>
       </c>
       <c r="AK35" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="AL35">
         <v>20</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -5712,13 +5712,13 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J36" t="s">
         <v>28</v>
@@ -5727,7 +5727,7 @@
         <v>88</v>
       </c>
       <c r="L36" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="M36">
         <v>5</v>
@@ -5745,49 +5745,49 @@
         <v>0.99227475769340667</v>
       </c>
       <c r="R36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S36" t="s">
         <v>12</v>
       </c>
       <c r="T36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V36" t="s">
         <v>10</v>
       </c>
       <c r="W36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X36" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="Y36" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="Z36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA36" t="s">
         <v>15</v>
       </c>
       <c r="AB36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD36" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="AE36">
         <v>37.862068965517238</v>
       </c>
       <c r="AF36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AH36" t="s">
         <v>16</v>
@@ -5796,10 +5796,10 @@
         <v>17</v>
       </c>
       <c r="AJ36" t="s">
-        <v>334</v>
+        <v>472</v>
       </c>
       <c r="AK36" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="AL36">
         <v>16</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -5819,7 +5819,7 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -5828,19 +5828,19 @@
         <v>24</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K37">
         <v>43</v>
       </c>
       <c r="L37" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="M37">
         <v>8</v>
       </c>
       <c r="N37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O37" t="s">
         <v>24</v>
@@ -5852,7 +5852,7 @@
         <v>0.99941483276183429</v>
       </c>
       <c r="R37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S37" t="s">
         <v>17</v>
@@ -5864,19 +5864,19 @@
         <v>24</v>
       </c>
       <c r="V37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W37" t="s">
+        <v>60</v>
+      </c>
+      <c r="X37" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z37" t="s">
         <v>63</v>
-      </c>
-      <c r="X37" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>66</v>
       </c>
       <c r="AA37" t="s">
         <v>27</v>
@@ -5885,7 +5885,7 @@
         <v>28</v>
       </c>
       <c r="AD37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE37">
         <v>47.655172413793103</v>
@@ -5894,7 +5894,7 @@
         <v>28</v>
       </c>
       <c r="AG37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AH37" t="s">
         <v>10</v>
@@ -5903,10 +5903,10 @@
         <v>12</v>
       </c>
       <c r="AJ37" t="s">
-        <v>338</v>
+        <v>473</v>
       </c>
       <c r="AK37" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="AL37">
         <v>18</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -5923,16 +5923,16 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F38" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
@@ -5941,7 +5941,7 @@
         <v>57</v>
       </c>
       <c r="L38" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="M38">
         <v>8</v>
@@ -5950,7 +5950,7 @@
         <v>16</v>
       </c>
       <c r="O38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P38" t="s">
         <v>13</v>
@@ -5959,61 +5959,61 @@
         <v>0.99941483276183463</v>
       </c>
       <c r="R38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="V38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X38" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="Y38" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="Z38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD38" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="AE38">
         <v>56.931034482758619</v>
       </c>
       <c r="AF38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AH38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI38">
         <v>51</v>
       </c>
       <c r="AJ38" t="s">
-        <v>342</v>
+        <v>474</v>
       </c>
       <c r="AK38" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="AL38">
         <v>17</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -6030,34 +6030,34 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F39" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>70</v>
       </c>
       <c r="L39" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M39">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P39" t="s">
         <v>13</v>
@@ -6066,37 +6066,37 @@
         <v>0.99227475769340689</v>
       </c>
       <c r="R39" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="S39" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="T39" t="s">
         <v>16</v>
       </c>
       <c r="U39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V39" t="s">
         <v>16</v>
       </c>
       <c r="W39" t="s">
+        <v>86</v>
+      </c>
+      <c r="X39" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z39" t="s">
         <v>91</v>
-      </c>
-      <c r="X39" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>96</v>
       </c>
       <c r="AA39" t="s">
         <v>24</v>
       </c>
       <c r="AB39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD39" t="s">
         <v>26</v>
@@ -6105,22 +6105,22 @@
         <v>42.103448275862071</v>
       </c>
       <c r="AF39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG39" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI39">
         <v>32</v>
       </c>
       <c r="AJ39" t="s">
-        <v>97</v>
+        <v>445</v>
       </c>
       <c r="AK39" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="AL39">
         <v>19</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -6137,10 +6137,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -6155,7 +6155,7 @@
         <v>45</v>
       </c>
       <c r="L40" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="M40">
         <v>6</v>
@@ -6164,7 +6164,7 @@
         <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P40" t="s">
         <v>13</v>
@@ -6173,10 +6173,10 @@
         <v>0.99941483276183429</v>
       </c>
       <c r="R40" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="T40" t="s">
         <v>10</v>
@@ -6191,22 +6191,22 @@
         <v>19</v>
       </c>
       <c r="X40" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="Y40" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="Z40" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA40" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s">
         <v>25</v>
       </c>
       <c r="AD40" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AE40">
         <v>35.620689655172413</v>
@@ -6215,7 +6215,7 @@
         <v>25</v>
       </c>
       <c r="AG40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s">
         <v>16</v>
@@ -6224,10 +6224,10 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s">
-        <v>261</v>
+        <v>462</v>
       </c>
       <c r="AK40" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="AL40">
         <v>17</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -6244,34 +6244,34 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G41">
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K41">
         <v>60</v>
       </c>
       <c r="L41" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="M41">
         <v>7</v>
       </c>
       <c r="N41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P41" t="s">
         <v>13</v>
@@ -6280,61 +6280,61 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R41" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="T41" t="s">
         <v>18</v>
       </c>
       <c r="U41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s">
+        <v>48</v>
+      </c>
+      <c r="W41" t="s">
         <v>50</v>
       </c>
-      <c r="W41" t="s">
-        <v>52</v>
-      </c>
       <c r="X41" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="Y41" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="Z41" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AA41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AB41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD41" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="AE41">
         <v>52.310344827586206</v>
       </c>
       <c r="AF41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI41">
         <v>26</v>
       </c>
       <c r="AJ41" t="s">
-        <v>355</v>
+        <v>475</v>
       </c>
       <c r="AK41" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="AL41">
         <v>20</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -6351,34 +6351,34 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>66</v>
       </c>
       <c r="L42" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="M42">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O42" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P42" t="s">
         <v>13</v>
@@ -6387,40 +6387,40 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R42" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="S42" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="T42" t="s">
         <v>18</v>
       </c>
       <c r="U42" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="V42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W42" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="X42" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="Y42" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="Z42" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="AA42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AB42" t="s">
         <v>28</v>
       </c>
       <c r="AD42" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="AE42">
         <v>37.862068965517238</v>
@@ -6429,7 +6429,7 @@
         <v>28</v>
       </c>
       <c r="AG42" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AH42" t="s">
         <v>10</v>
@@ -6438,10 +6438,10 @@
         <v>32</v>
       </c>
       <c r="AJ42" t="s">
-        <v>132</v>
+        <v>448</v>
       </c>
       <c r="AK42" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="AL42">
         <v>19</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -6458,16 +6458,16 @@
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F43" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J43" t="s">
         <v>10</v>
@@ -6476,7 +6476,7 @@
         <v>38</v>
       </c>
       <c r="L43" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="M43">
         <v>8</v>
@@ -6485,7 +6485,7 @@
         <v>10</v>
       </c>
       <c r="O43" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="P43" t="s">
         <v>13</v>
@@ -6494,40 +6494,40 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R43" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="S43" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="T43" t="s">
         <v>10</v>
       </c>
       <c r="U43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="V43" t="s">
+        <v>48</v>
+      </c>
+      <c r="W43" t="s">
         <v>50</v>
       </c>
-      <c r="W43" t="s">
-        <v>52</v>
-      </c>
       <c r="X43" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="Y43" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="Z43" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AA43" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="AB43" t="s">
         <v>25</v>
       </c>
       <c r="AD43" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="AE43">
         <v>35.620689655172413</v>
@@ -6536,19 +6536,19 @@
         <v>25</v>
       </c>
       <c r="AG43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AH43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI43">
         <v>68</v>
       </c>
       <c r="AJ43" t="s">
-        <v>366</v>
+        <v>476</v>
       </c>
       <c r="AK43" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="AL43">
         <v>17</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -6565,16 +6565,16 @@
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F44" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G44">
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J44" t="s">
         <v>28</v>
@@ -6583,7 +6583,7 @@
         <v>50</v>
       </c>
       <c r="L44" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="M44">
         <v>7</v>
@@ -6592,7 +6592,7 @@
         <v>28</v>
       </c>
       <c r="O44" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="P44" t="s">
         <v>13</v>
@@ -6601,49 +6601,49 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R44" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="S44" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="T44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U44" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="V44" t="s">
         <v>18</v>
       </c>
       <c r="W44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X44" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Y44" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="Z44" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="AA44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AB44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD44" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="AE44">
         <v>50.241379310344826</v>
       </c>
       <c r="AF44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG44" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="AH44" t="s">
         <v>18</v>
@@ -6652,10 +6652,10 @@
         <v>26</v>
       </c>
       <c r="AJ44" t="s">
-        <v>370</v>
+        <v>477</v>
       </c>
       <c r="AK44" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AL44">
         <v>11</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -6672,16 +6672,16 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G45">
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="J45" t="s">
         <v>16</v>
@@ -6690,7 +6690,7 @@
         <v>57</v>
       </c>
       <c r="L45" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="M45">
         <v>6</v>
@@ -6699,7 +6699,7 @@
         <v>16</v>
       </c>
       <c r="O45" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P45" t="s">
         <v>13</v>
@@ -6708,40 +6708,40 @@
         <v>0.99227475769340701</v>
       </c>
       <c r="R45" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="S45" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="T45" t="s">
         <v>16</v>
       </c>
       <c r="U45" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="V45" t="s">
         <v>10</v>
       </c>
       <c r="W45" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="X45" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="Y45" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="Z45" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="AA45" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="AB45" t="s">
         <v>28</v>
       </c>
       <c r="AD45" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="AE45">
         <v>37.862068965517238</v>
@@ -6750,19 +6750,19 @@
         <v>28</v>
       </c>
       <c r="AG45" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AH45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI45">
         <v>15</v>
       </c>
       <c r="AJ45" t="s">
-        <v>377</v>
+        <v>478</v>
       </c>
       <c r="AK45" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="AL45">
         <v>15</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -6779,34 +6779,34 @@
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F46" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>70</v>
       </c>
       <c r="L46" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M46">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O46" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="P46" t="s">
         <v>13</v>
@@ -6815,49 +6815,49 @@
         <v>0.99227475769340712</v>
       </c>
       <c r="R46" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="S46" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="T46" t="s">
         <v>16</v>
       </c>
       <c r="U46" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="V46" t="s">
         <v>16</v>
       </c>
       <c r="W46" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X46" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="Y46" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="Z46" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AA46" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="AB46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD46" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="AE46">
         <v>52.310344827586206</v>
       </c>
       <c r="AF46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG46" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AH46" t="s">
         <v>10</v>
@@ -6866,10 +6866,10 @@
         <v>67</v>
       </c>
       <c r="AJ46" t="s">
-        <v>381</v>
+        <v>479</v>
       </c>
       <c r="AK46" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AL46">
         <v>20</v>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -6886,16 +6886,16 @@
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F47" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J47" t="s">
         <v>16</v>
@@ -6904,7 +6904,7 @@
         <v>76</v>
       </c>
       <c r="L47" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="M47">
         <v>8</v>
@@ -6913,7 +6913,7 @@
         <v>16</v>
       </c>
       <c r="O47" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="P47" t="s">
         <v>13</v>
@@ -6922,40 +6922,40 @@
         <v>0.99941483276183463</v>
       </c>
       <c r="R47" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="S47" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="T47" t="s">
         <v>18</v>
       </c>
       <c r="U47" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="V47" t="s">
+        <v>48</v>
+      </c>
+      <c r="W47" t="s">
         <v>50</v>
       </c>
-      <c r="W47" t="s">
-        <v>52</v>
-      </c>
       <c r="X47" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="Y47" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="Z47" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AA47" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="AB47" t="s">
         <v>28</v>
       </c>
       <c r="AD47" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="AE47">
         <v>37.862068965517238</v>
@@ -6964,7 +6964,7 @@
         <v>28</v>
       </c>
       <c r="AG47" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AH47" t="s">
         <v>16</v>
@@ -6973,10 +6973,10 @@
         <v>79</v>
       </c>
       <c r="AJ47" t="s">
-        <v>386</v>
+        <v>480</v>
       </c>
       <c r="AK47" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="AL47">
         <v>18</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -6993,16 +6993,16 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F48" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="J48" t="s">
         <v>10</v>
@@ -7011,7 +7011,7 @@
         <v>54</v>
       </c>
       <c r="L48" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="M48">
         <v>7</v>
@@ -7020,7 +7020,7 @@
         <v>10</v>
       </c>
       <c r="O48" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="P48" t="s">
         <v>13</v>
@@ -7029,49 +7029,49 @@
         <v>0.99941483276183463</v>
       </c>
       <c r="R48" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="S48" t="s">
+        <v>170</v>
+      </c>
+      <c r="T48" t="s">
+        <v>48</v>
+      </c>
+      <c r="U48" t="s">
+        <v>165</v>
+      </c>
+      <c r="V48" t="s">
+        <v>43</v>
+      </c>
+      <c r="W48" t="s">
+        <v>140</v>
+      </c>
+      <c r="X48" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA48" t="s">
         <v>183</v>
       </c>
-      <c r="T48" t="s">
-        <v>50</v>
-      </c>
-      <c r="U48" t="s">
-        <v>177</v>
-      </c>
-      <c r="V48" t="s">
-        <v>44</v>
-      </c>
-      <c r="W48" t="s">
-        <v>150</v>
-      </c>
-      <c r="X48" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>197</v>
-      </c>
       <c r="AB48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD48" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="AE48">
         <v>50.241379310344826</v>
       </c>
       <c r="AF48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG48" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AH48" t="s">
         <v>18</v>
@@ -7080,10 +7080,10 @@
         <v>73</v>
       </c>
       <c r="AJ48" t="s">
-        <v>391</v>
+        <v>481</v>
       </c>
       <c r="AK48" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="AL48">
         <v>19</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="49" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -7100,16 +7100,16 @@
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F49" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G49">
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="J49" t="s">
         <v>28</v>
@@ -7118,7 +7118,7 @@
         <v>57</v>
       </c>
       <c r="L49" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="M49">
         <v>6</v>
@@ -7127,7 +7127,7 @@
         <v>28</v>
       </c>
       <c r="O49" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P49" t="s">
         <v>13</v>
@@ -7136,61 +7136,61 @@
         <v>0.99227475769340667</v>
       </c>
       <c r="R49" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="S49" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="T49" t="s">
         <v>10</v>
       </c>
       <c r="U49" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="V49" t="s">
         <v>10</v>
       </c>
       <c r="W49" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X49" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="Y49" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="Z49" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="AA49" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="AB49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD49" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="AE49">
         <v>52.310344827586206</v>
       </c>
       <c r="AF49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG49" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AH49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI49">
         <v>31</v>
       </c>
       <c r="AJ49" t="s">
-        <v>396</v>
+        <v>482</v>
       </c>
       <c r="AK49" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="AL49">
         <v>17</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -7210,7 +7210,7 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -7225,7 +7225,7 @@
         <v>80</v>
       </c>
       <c r="L50" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="M50">
         <v>7</v>
@@ -7261,22 +7261,22 @@
         <v>19</v>
       </c>
       <c r="X50" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="Y50" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="Z50" t="s">
         <v>23</v>
       </c>
       <c r="AA50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB50" t="s">
         <v>25</v>
       </c>
       <c r="AD50" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="AE50">
         <v>28.896551724137932</v>
@@ -7285,7 +7285,7 @@
         <v>25</v>
       </c>
       <c r="AG50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s">
         <v>28</v>
@@ -7294,10 +7294,10 @@
         <v>15</v>
       </c>
       <c r="AJ50" t="s">
-        <v>403</v>
+        <v>483</v>
       </c>
       <c r="AK50" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="AL50">
         <v>16</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="51" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -7317,7 +7317,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -7332,7 +7332,7 @@
         <v>70</v>
       </c>
       <c r="L51" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="M51">
         <v>6</v>
@@ -7341,7 +7341,7 @@
         <v>16</v>
       </c>
       <c r="O51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P51" t="s">
         <v>13</v>
@@ -7350,10 +7350,10 @@
         <v>0.97907681254828294</v>
       </c>
       <c r="R51" t="s">
+        <v>34</v>
+      </c>
+      <c r="S51" t="s">
         <v>35</v>
-      </c>
-      <c r="S51" t="s">
-        <v>36</v>
       </c>
       <c r="T51" t="s">
         <v>18</v>
@@ -7365,46 +7365,46 @@
         <v>16</v>
       </c>
       <c r="W51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y51" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="Z51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB51" t="s">
         <v>40</v>
       </c>
-      <c r="AA51" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>41</v>
-      </c>
       <c r="AD51" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="AE51">
         <v>62.379310344827587</v>
       </c>
       <c r="AF51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG51" t="s">
         <v>9</v>
       </c>
       <c r="AH51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI51">
         <v>26</v>
       </c>
       <c r="AJ51" t="s">
-        <v>408</v>
+        <v>484</v>
       </c>
       <c r="AK51" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="AL51">
         <v>20</v>
@@ -7412,7 +7412,7 @@
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -7424,13 +7424,13 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G52">
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -7439,7 +7439,7 @@
         <v>88</v>
       </c>
       <c r="L52" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="M52">
         <v>5</v>
@@ -7457,49 +7457,49 @@
         <v>0.99227475769340667</v>
       </c>
       <c r="R52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S52" t="s">
         <v>12</v>
       </c>
       <c r="T52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V52" t="s">
         <v>10</v>
       </c>
       <c r="W52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X52" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="Y52" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="Z52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA52" t="s">
         <v>9</v>
       </c>
       <c r="AB52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD52" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="AE52">
         <v>37.862068965517238</v>
       </c>
       <c r="AF52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH52" t="s">
         <v>16</v>
@@ -7508,10 +7508,10 @@
         <v>17</v>
       </c>
       <c r="AJ52" t="s">
-        <v>413</v>
+        <v>485</v>
       </c>
       <c r="AK52" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="AL52">
         <v>16</v>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="53" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -7531,7 +7531,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -7540,19 +7540,19 @@
         <v>24</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K53">
         <v>43</v>
       </c>
       <c r="L53" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="M53">
         <v>8</v>
       </c>
       <c r="N53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O53" t="s">
         <v>24</v>
@@ -7564,7 +7564,7 @@
         <v>0.99941483276183429</v>
       </c>
       <c r="R53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S53" t="s">
         <v>17</v>
@@ -7576,19 +7576,19 @@
         <v>24</v>
       </c>
       <c r="V53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W53" t="s">
+        <v>60</v>
+      </c>
+      <c r="X53" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z53" t="s">
         <v>63</v>
-      </c>
-      <c r="X53" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>66</v>
       </c>
       <c r="AA53" t="s">
         <v>27</v>
@@ -7597,7 +7597,7 @@
         <v>28</v>
       </c>
       <c r="AD53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE53">
         <v>47.655172413793103</v>
@@ -7606,7 +7606,7 @@
         <v>28</v>
       </c>
       <c r="AG53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AH53" t="s">
         <v>10</v>
@@ -7615,10 +7615,10 @@
         <v>12</v>
       </c>
       <c r="AJ53" t="s">
-        <v>338</v>
+        <v>473</v>
       </c>
       <c r="AK53" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="AL53">
         <v>18</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -7635,16 +7635,16 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F54" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J54" t="s">
         <v>16</v>
@@ -7653,7 +7653,7 @@
         <v>57</v>
       </c>
       <c r="L54" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="M54">
         <v>8</v>
@@ -7662,7 +7662,7 @@
         <v>16</v>
       </c>
       <c r="O54" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P54" t="s">
         <v>13</v>
@@ -7671,61 +7671,61 @@
         <v>0.99941483276183463</v>
       </c>
       <c r="R54" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S54" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U54" t="s">
+        <v>72</v>
+      </c>
+      <c r="V54" t="s">
+        <v>43</v>
+      </c>
+      <c r="W54" t="s">
+        <v>36</v>
+      </c>
+      <c r="X54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z54" t="s">
         <v>76</v>
       </c>
-      <c r="V54" t="s">
-        <v>44</v>
-      </c>
-      <c r="W54" t="s">
-        <v>37</v>
-      </c>
-      <c r="X54" t="s">
+      <c r="AA54" t="s">
         <v>77</v>
       </c>
-      <c r="Y54" t="s">
-        <v>417</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>81</v>
-      </c>
       <c r="AB54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD54" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AE54">
         <v>56.931034482758619</v>
       </c>
       <c r="AF54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG54" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AH54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI54">
         <v>51</v>
       </c>
       <c r="AJ54" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="AK54" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="AL54">
         <v>17</v>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="55" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -7742,34 +7742,34 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F55" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>70</v>
       </c>
       <c r="L55" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="M55">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O55" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P55" t="s">
         <v>13</v>
@@ -7778,61 +7778,61 @@
         <v>0.99227475769340689</v>
       </c>
       <c r="R55" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="S55" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="T55" t="s">
         <v>16</v>
       </c>
       <c r="U55" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V55" t="s">
         <v>16</v>
       </c>
       <c r="W55" t="s">
+        <v>86</v>
+      </c>
+      <c r="X55" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z55" t="s">
         <v>91</v>
       </c>
-      <c r="X55" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>421</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>96</v>
-      </c>
       <c r="AA55" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AB55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD55" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AE55">
         <v>42.103448275862071</v>
       </c>
       <c r="AF55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG55" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AH55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI55">
         <v>32</v>
       </c>
       <c r="AJ55" t="s">
-        <v>422</v>
+        <v>487</v>
       </c>
       <c r="AK55" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AL55">
         <v>19</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -7849,16 +7849,16 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F56" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G56">
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J56" t="s">
         <v>10</v>
@@ -7867,7 +7867,7 @@
         <v>45</v>
       </c>
       <c r="L56" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="M56">
         <v>6</v>
@@ -7876,7 +7876,7 @@
         <v>10</v>
       </c>
       <c r="O56" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P56" t="s">
         <v>13</v>
@@ -7885,16 +7885,16 @@
         <v>0.99941483276183429</v>
       </c>
       <c r="R56" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S56" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="T56" t="s">
         <v>10</v>
       </c>
       <c r="U56" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="V56" t="s">
         <v>10</v>
@@ -7903,22 +7903,22 @@
         <v>19</v>
       </c>
       <c r="X56" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="Y56" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="Z56" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB56" t="s">
         <v>25</v>
       </c>
       <c r="AD56" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="AE56">
         <v>35.620689655172413</v>
@@ -7927,7 +7927,7 @@
         <v>25</v>
       </c>
       <c r="AG56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH56" t="s">
         <v>16</v>
@@ -7936,10 +7936,10 @@
         <v>83</v>
       </c>
       <c r="AJ56" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="AK56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL56">
         <v>17</v>
@@ -7947,7 +7947,7 @@
     </row>
     <row r="57" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -7956,34 +7956,34 @@
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G57">
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>60</v>
       </c>
       <c r="L57" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="M57">
         <v>7</v>
       </c>
       <c r="N57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O57" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P57" t="s">
         <v>13</v>
@@ -7992,61 +7992,61 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R57" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S57" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="T57" t="s">
         <v>18</v>
       </c>
       <c r="U57" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V57" t="s">
+        <v>48</v>
+      </c>
+      <c r="W57" t="s">
         <v>50</v>
       </c>
-      <c r="W57" t="s">
-        <v>52</v>
-      </c>
       <c r="X57" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="Y57" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="Z57" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AA57" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AB57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD57" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AE57">
         <v>52.310344827586206</v>
       </c>
       <c r="AF57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG57" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AH57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI57">
         <v>26</v>
       </c>
       <c r="AJ57" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="AK57" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="AL57">
         <v>20</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="58" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -8063,34 +8063,34 @@
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>66</v>
       </c>
       <c r="L58" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="M58">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O58" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P58" t="s">
         <v>13</v>
@@ -8099,40 +8099,40 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R58" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="S58" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="T58" t="s">
         <v>18</v>
       </c>
       <c r="U58" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="V58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W58" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="X58" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Y58" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="Z58" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="AA58" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AB58" t="s">
         <v>28</v>
       </c>
       <c r="AD58" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="AE58">
         <v>37.862068965517238</v>
@@ -8141,7 +8141,7 @@
         <v>28</v>
       </c>
       <c r="AG58" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AH58" t="s">
         <v>10</v>
@@ -8150,10 +8150,10 @@
         <v>32</v>
       </c>
       <c r="AJ58" t="s">
-        <v>275</v>
+        <v>464</v>
       </c>
       <c r="AK58" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AL58">
         <v>19</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="59" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -8170,16 +8170,16 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G59">
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J59" t="s">
         <v>10</v>
@@ -8188,7 +8188,7 @@
         <v>38</v>
       </c>
       <c r="L59" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="M59">
         <v>8</v>
@@ -8197,7 +8197,7 @@
         <v>10</v>
       </c>
       <c r="O59" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="P59" t="s">
         <v>13</v>
@@ -8206,40 +8206,40 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R59" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="S59" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="T59" t="s">
         <v>10</v>
       </c>
       <c r="U59" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="V59" t="s">
+        <v>48</v>
+      </c>
+      <c r="W59" t="s">
         <v>50</v>
       </c>
-      <c r="W59" t="s">
-        <v>52</v>
-      </c>
       <c r="X59" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="Y59" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="Z59" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AA59" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AB59" t="s">
         <v>25</v>
       </c>
       <c r="AD59" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AE59">
         <v>35.620689655172413</v>
@@ -8248,19 +8248,19 @@
         <v>25</v>
       </c>
       <c r="AG59" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AH59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI59">
         <v>68</v>
       </c>
       <c r="AJ59" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="AK59" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AL59">
         <v>17</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="60" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -8277,16 +8277,16 @@
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G60">
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J60" t="s">
         <v>28</v>
@@ -8295,7 +8295,7 @@
         <v>50</v>
       </c>
       <c r="L60" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="M60">
         <v>7</v>
@@ -8304,7 +8304,7 @@
         <v>28</v>
       </c>
       <c r="O60" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="P60" t="s">
         <v>13</v>
@@ -8313,49 +8313,49 @@
         <v>0.99941483276183452</v>
       </c>
       <c r="R60" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="S60" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="T60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U60" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="V60" t="s">
         <v>18</v>
       </c>
       <c r="W60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X60" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="Y60" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="Z60" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="AA60" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="AB60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD60" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="AE60">
         <v>50.241379310344826</v>
       </c>
       <c r="AF60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG60" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="AH60" t="s">
         <v>18</v>
@@ -8364,10 +8364,10 @@
         <v>26</v>
       </c>
       <c r="AJ60" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="AK60" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="AL60">
         <v>11</v>
@@ -8375,7 +8375,7 @@
     </row>
     <row r="61" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -8384,16 +8384,16 @@
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G61">
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J61" t="s">
         <v>16</v>
@@ -8402,7 +8402,7 @@
         <v>57</v>
       </c>
       <c r="L61" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="M61">
         <v>6</v>
@@ -8411,7 +8411,7 @@
         <v>16</v>
       </c>
       <c r="O61" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P61" t="s">
         <v>13</v>
@@ -8420,40 +8420,40 @@
         <v>0.99227475769340701</v>
       </c>
       <c r="R61" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="S61" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="T61" t="s">
         <v>16</v>
       </c>
       <c r="U61" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="V61" t="s">
         <v>10</v>
       </c>
       <c r="W61" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="X61" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Y61" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="Z61" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="AA61" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AB61" t="s">
         <v>28</v>
       </c>
       <c r="AD61" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="AE61">
         <v>37.862068965517238</v>
@@ -8462,19 +8462,19 @@
         <v>28</v>
       </c>
       <c r="AG61" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="AH61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI61">
         <v>15</v>
       </c>
       <c r="AJ61" t="s">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="AK61" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AL61">
         <v>15</v>
@@ -8482,7 +8482,7 @@
     </row>
     <row r="62" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>448</v>
+        <v>395</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -8491,34 +8491,34 @@
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F62" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>70</v>
       </c>
       <c r="L62" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="M62">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O62" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="P62" t="s">
         <v>13</v>
@@ -8527,49 +8527,49 @@
         <v>0.99227475769340712</v>
       </c>
       <c r="R62" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="S62" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="T62" t="s">
         <v>16</v>
       </c>
       <c r="U62" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="V62" t="s">
         <v>16</v>
       </c>
       <c r="W62" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X62" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="Y62" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="Z62" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AA62" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AB62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD62" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="AE62">
         <v>52.310344827586206</v>
       </c>
       <c r="AF62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG62" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="AH62" t="s">
         <v>10</v>
@@ -8578,10 +8578,10 @@
         <v>67</v>
       </c>
       <c r="AJ62" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="AK62" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AL62">
         <v>20</v>
@@ -8589,7 +8589,7 @@
     </row>
     <row r="63" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>452</v>
+        <v>398</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -8598,16 +8598,16 @@
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F63" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G63">
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="J63" t="s">
         <v>16</v>
@@ -8616,7 +8616,7 @@
         <v>76</v>
       </c>
       <c r="L63" t="s">
-        <v>453</v>
+        <v>399</v>
       </c>
       <c r="M63">
         <v>8</v>
@@ -8625,7 +8625,7 @@
         <v>16</v>
       </c>
       <c r="O63" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="P63" t="s">
         <v>13</v>
@@ -8634,40 +8634,40 @@
         <v>0.99941483276183463</v>
       </c>
       <c r="R63" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="S63" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="T63" t="s">
         <v>18</v>
       </c>
       <c r="U63" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="V63" t="s">
+        <v>48</v>
+      </c>
+      <c r="W63" t="s">
         <v>50</v>
       </c>
-      <c r="W63" t="s">
-        <v>52</v>
-      </c>
       <c r="X63" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="Y63" t="s">
-        <v>454</v>
+        <v>400</v>
       </c>
       <c r="Z63" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AA63" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="AB63" t="s">
         <v>28</v>
       </c>
       <c r="AD63" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="AE63">
         <v>37.862068965517238</v>
@@ -8676,7 +8676,7 @@
         <v>28</v>
       </c>
       <c r="AG63" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AH63" t="s">
         <v>16</v>
@@ -8685,10 +8685,10 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="AK63" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AL63">
         <v>18</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="64" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -8705,16 +8705,16 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F64" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G64">
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J64" t="s">
         <v>10</v>
@@ -8723,7 +8723,7 @@
         <v>54</v>
       </c>
       <c r="L64" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="M64">
         <v>7</v>
@@ -8732,7 +8732,7 @@
         <v>10</v>
       </c>
       <c r="O64" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="P64" t="s">
         <v>13</v>
@@ -8741,49 +8741,49 @@
         <v>0.99941483276183463</v>
       </c>
       <c r="R64" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="S64" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="T64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U64" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="V64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W64" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="X64" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="Y64" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="Z64" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="AA64" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AB64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD64" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="AE64">
         <v>50.241379310344826</v>
       </c>
       <c r="AF64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG64" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="AH64" t="s">
         <v>18</v>
@@ -8792,10 +8792,10 @@
         <v>73</v>
       </c>
       <c r="AJ64" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
       <c r="AK64" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AL64">
         <v>19</v>
@@ -8803,7 +8803,7 @@
     </row>
     <row r="65" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -8812,16 +8812,16 @@
         <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F65" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G65">
         <v>4</v>
       </c>
       <c r="I65" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="J65" t="s">
         <v>28</v>
@@ -8830,7 +8830,7 @@
         <v>57</v>
       </c>
       <c r="L65" t="s">
-        <v>460</v>
+        <v>405</v>
       </c>
       <c r="M65">
         <v>6</v>
@@ -8839,7 +8839,7 @@
         <v>28</v>
       </c>
       <c r="O65" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P65" t="s">
         <v>13</v>
@@ -8848,61 +8848,61 @@
         <v>0.99227475769340667</v>
       </c>
       <c r="R65" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="S65" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="T65" t="s">
         <v>10</v>
       </c>
       <c r="U65" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="V65" t="s">
         <v>10</v>
       </c>
       <c r="W65" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X65" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="Y65" t="s">
-        <v>461</v>
+        <v>406</v>
       </c>
       <c r="Z65" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="AA65" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AB65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD65" t="s">
-        <v>462</v>
+        <v>407</v>
       </c>
       <c r="AE65">
         <v>52.310344827586206</v>
       </c>
       <c r="AF65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG65" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AH65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI65">
         <v>31</v>
       </c>
       <c r="AJ65" t="s">
-        <v>317</v>
+        <v>470</v>
       </c>
       <c r="AK65" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="AL65">
         <v>17</v>
